--- a/lab3/Описание моделей.xlsx
+++ b/lab3/Описание моделей.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\БД\data-base-labs\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\bmstu_labs\data-base-labs\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5091D394-3DCC-4160-BD6C-1CB9BB5D6BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F275D-5117-4C13-A146-07DB54F2BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание структуры таблиц" sheetId="1" r:id="rId1"/>
@@ -870,26 +870,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,6 +918,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,13 +943,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,1090 +1373,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <charset val="204"/>
@@ -2663,6 +1579,216 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2670,11 +1796,100 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2693,6 +1908,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2700,6 +1929,123 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2707,6 +2053,102 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2714,6 +2156,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2721,6 +2177,97 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2728,6 +2275,19 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2735,6 +2295,97 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2742,6 +2393,19 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2749,6 +2413,102 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2756,6 +2516,122 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2763,6 +2639,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2770,18 +2660,128 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2797,64 +2797,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66334635-8D47-4190-AB41-6FE12B269CF9}" name="Таблица3" displayName="Таблица3" ref="A2:E11" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66334635-8D47-4190-AB41-6FE12B269CF9}" name="Таблица3" displayName="Таблица3" ref="A2:E11" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A2:E11" xr:uid="{66334635-8D47-4190-AB41-6FE12B269CF9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{99178D92-C410-4414-85E7-29073A815EBA}" name="Column Name" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{497916AA-1392-40E6-95F3-074EB049B1AA}" name="Type" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{D043B4E0-C2A0-4C1F-8EFA-103F9D71396A}" name="Key" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{6431490B-1EDB-48A0-9CF9-280D8E6E19C3}" name="NULL status " dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{7F72B51A-4255-47E0-8585-DB2BCF45EE86}" name="Remarks" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{99178D92-C410-4414-85E7-29073A815EBA}" name="Column Name" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{497916AA-1392-40E6-95F3-074EB049B1AA}" name="Type" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{D043B4E0-C2A0-4C1F-8EFA-103F9D71396A}" name="Key" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{6431490B-1EDB-48A0-9CF9-280D8E6E19C3}" name="NULL status " dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{7F72B51A-4255-47E0-8585-DB2BCF45EE86}" name="Remarks" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="45">
   <autoFilter ref="A1:E9" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A2:C5" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A222FEE6-EE5D-4CD4-83E4-A180EDBAF8BB}" name="Операция " dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{CE92067A-59BA-45AE-A4C5-D3AEDEAF3BDF}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{B43815AA-C7E1-4002-BB37-3390D7D49602}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{A222FEE6-EE5D-4CD4-83E4-A180EDBAF8BB}" name="Операция " dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{CE92067A-59BA-45AE-A4C5-D3AEDEAF3BDF}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{B43815AA-C7E1-4002-BB37-3390D7D49602}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="E2:G5" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3C3273F-ED53-41E2-A91C-63EC99055BC1}" name="Операция " dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{F4929F41-63CD-4311-AEBF-497360247261}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{A4FDD04E-F410-4E5A-9B9E-F352A10C5421}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{D3C3273F-ED53-41E2-A91C-63EC99055BC1}" name="Операция " dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F4929F41-63CD-4311-AEBF-497360247261}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A4FDD04E-F410-4E5A-9B9E-F352A10C5421}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A8:C11" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2921,112 +2921,112 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DFEDA13-0365-4680-8F97-421CE79EE41B}" name="Таблица4" displayName="Таблица4" ref="N2:R6" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowBorderDxfId="124" tableBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DFEDA13-0365-4680-8F97-421CE79EE41B}" name="Таблица4" displayName="Таблица4" ref="N2:R6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114">
   <autoFilter ref="N2:R6" xr:uid="{4DFEDA13-0365-4680-8F97-421CE79EE41B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{300F214E-6553-4B03-A9E7-0367783B2F95}" name="Column Name" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{C09C79E9-A2AD-47CD-88CA-48BE1E54DD97}" name="Type" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{C52633CF-BDA4-4DD1-842C-0799CEDC1C33}" name="Key" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{464C6A89-E4C0-4814-9BDE-F07423EDFD1D}" name="NULL status " dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{B887490C-A26C-472C-B78E-BFD89FD0A28C}" name="Remarks" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{300F214E-6553-4B03-A9E7-0367783B2F95}" name="Column Name" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{C09C79E9-A2AD-47CD-88CA-48BE1E54DD97}" name="Type" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{C52633CF-BDA4-4DD1-842C-0799CEDC1C33}" name="Key" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{464C6A89-E4C0-4814-9BDE-F07423EDFD1D}" name="NULL status " dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{B887490C-A26C-472C-B78E-BFD89FD0A28C}" name="Remarks" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3E028C6-D118-4D99-BB4D-9EA965FDCC38}" name="Таблица5" displayName="Таблица5" ref="A14:E20" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowBorderDxfId="122" tableBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3E028C6-D118-4D99-BB4D-9EA965FDCC38}" name="Таблица5" displayName="Таблица5" ref="A14:E20" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105">
   <autoFilter ref="A14:E20" xr:uid="{C3E028C6-D118-4D99-BB4D-9EA965FDCC38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055CD5C0-F6F0-4C22-8AF5-ECF61F4A64BE}" name="Column Name" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{C5A423A6-4566-4749-8043-026FB97BA6A3}" name="Type" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{67644188-A927-49EC-BDF9-537BD894D598}" name="Key" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{F8E8060A-1ACB-4C2E-A563-50A696A661BB}" name="NULL status " dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{9026B003-F36F-4620-A766-0E8316C9108E}" name="Remarks" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{055CD5C0-F6F0-4C22-8AF5-ECF61F4A64BE}" name="Column Name" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{C5A423A6-4566-4749-8043-026FB97BA6A3}" name="Type" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{67644188-A927-49EC-BDF9-537BD894D598}" name="Key" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{F8E8060A-1ACB-4C2E-A563-50A696A661BB}" name="NULL status " dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{9026B003-F36F-4620-A766-0E8316C9108E}" name="Remarks" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99B2BAAD-B777-440D-B6DD-FFFC8065788C}" name="Таблица1" displayName="Таблица1" ref="G14:K16" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" headerRowBorderDxfId="119" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99B2BAAD-B777-440D-B6DD-FFFC8065788C}" name="Таблица1" displayName="Таблица1" ref="G14:K16" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96">
   <autoFilter ref="G14:K16" xr:uid="{99B2BAAD-B777-440D-B6DD-FFFC8065788C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{546010D4-DEE0-402D-9E41-AA157B8B771B}" name="Column Name" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{29910C15-FEE1-4B15-BF79-0ECCC9EF24CB}" name="Type" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{52CB5A46-E370-400C-B021-C250BF704541}" name="Key" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{AC2A3AB2-D080-4D37-BE76-4C7649B233C7}" name="NULL status " dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{678D5148-F712-441B-9044-D6F9A095F99F}" name="Remarks" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{546010D4-DEE0-402D-9E41-AA157B8B771B}" name="Column Name" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{29910C15-FEE1-4B15-BF79-0ECCC9EF24CB}" name="Type" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{52CB5A46-E370-400C-B021-C250BF704541}" name="Key" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{AC2A3AB2-D080-4D37-BE76-4C7649B233C7}" name="NULL status " dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{678D5148-F712-441B-9044-D6F9A095F99F}" name="Remarks" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{836A2ECF-BB2D-4E37-B3DA-8882A21C3145}" name="Таблица13" displayName="Таблица13" ref="G2:K4" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowBorderDxfId="117" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{836A2ECF-BB2D-4E37-B3DA-8882A21C3145}" name="Таблица13" displayName="Таблица13" ref="G2:K4" totalsRowShown="0" headerRowDxfId="90" dataDxfId="88" headerRowBorderDxfId="89" tableBorderDxfId="87">
   <autoFilter ref="G2:K4" xr:uid="{836A2ECF-BB2D-4E37-B3DA-8882A21C3145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4A06B787-8351-49FE-9D95-9B2F31CB9AF2}" name="Column Name" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{56239771-00F0-43B0-99EC-11DEB708ACB9}" name="Type" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{B88C2AC6-7F76-42AD-8954-18E1EBB9F104}" name="Key" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{F1C1062B-4591-4D1C-AA15-34CBAA04EF52}" name="NULL status " dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{379EDF05-36E1-4F34-805E-057C3C1B2E6E}" name="Remarks" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{4A06B787-8351-49FE-9D95-9B2F31CB9AF2}" name="Column Name" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{56239771-00F0-43B0-99EC-11DEB708ACB9}" name="Type" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{B88C2AC6-7F76-42AD-8954-18E1EBB9F104}" name="Key" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{F1C1062B-4591-4D1C-AA15-34CBAA04EF52}" name="NULL status " dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{379EDF05-36E1-4F34-805E-057C3C1B2E6E}" name="Remarks" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{07E51873-0F83-4751-A9BD-C90DE382985E}" name="Таблица7" displayName="Таблица7" ref="N14:R18" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowBorderDxfId="115" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{07E51873-0F83-4751-A9BD-C90DE382985E}" name="Таблица7" displayName="Таблица7" ref="N14:R18" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78">
   <autoFilter ref="N14:R18" xr:uid="{07E51873-0F83-4751-A9BD-C90DE382985E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9FD81774-C5CD-422E-BBF5-8ABB4966E50D}" name="Column Name" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{041EBC46-BB93-44E8-AAE2-7AC0337B5A46}" name="Type" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{6142AEDD-E86E-4916-9CD6-AC749FBB4930}" name="Key" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{F017E418-DDDF-4A80-9CBC-20924363FD96}" name="NULL status " dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{6F81F8EA-CD37-40E8-82F4-67AF0C197166}" name="Remarks" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{9FD81774-C5CD-422E-BBF5-8ABB4966E50D}" name="Column Name" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{041EBC46-BB93-44E8-AAE2-7AC0337B5A46}" name="Type" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{6142AEDD-E86E-4916-9CD6-AC749FBB4930}" name="Key" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{F017E418-DDDF-4A80-9CBC-20924363FD96}" name="NULL status " dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{6F81F8EA-CD37-40E8-82F4-67AF0C197166}" name="Remarks" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA4CF959-C797-498A-908D-9F1625BEE4AF}" name="Таблица8" displayName="Таблица8" ref="G23:K25" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowBorderDxfId="113" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA4CF959-C797-498A-908D-9F1625BEE4AF}" name="Таблица8" displayName="Таблица8" ref="G23:K25" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
   <autoFilter ref="G23:K25" xr:uid="{DA4CF959-C797-498A-908D-9F1625BEE4AF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D82F917D-D511-4F01-A3D9-3FACB2CC26A0}" name="Column Name" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{DB1416B6-5234-4835-BAE7-4AC25EE104D3}" name="Type" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{749E2FB2-B78C-48F0-87B2-9BC2D798CB47}" name="Key" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{F7592464-DE78-496F-9BDF-E1FC2D53EE6B}" name="NULL status " dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{1DB0DA32-17E1-4285-8AF5-FD4532A47ED7}" name="Remarks" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{D82F917D-D511-4F01-A3D9-3FACB2CC26A0}" name="Column Name" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{DB1416B6-5234-4835-BAE7-4AC25EE104D3}" name="Type" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{749E2FB2-B78C-48F0-87B2-9BC2D798CB47}" name="Key" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{F7592464-DE78-496F-9BDF-E1FC2D53EE6B}" name="NULL status " dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{1DB0DA32-17E1-4285-8AF5-FD4532A47ED7}" name="Remarks" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BBAA9E36-D6ED-499C-9817-B53F527D4F6C}" name="Таблица9" displayName="Таблица9" ref="N23:R29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="112" tableBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BBAA9E36-D6ED-499C-9817-B53F527D4F6C}" name="Таблица9" displayName="Таблица9" ref="N23:R29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
   <autoFilter ref="N23:R29" xr:uid="{BBAA9E36-D6ED-499C-9817-B53F527D4F6C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{938EBDA3-27A8-445D-933D-57F8E5A2BC58}" name="Column Name" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{F5E68ECD-02E3-4E2E-BFC9-029A161DD895}" name="Type" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{51125E3C-49DC-4A6D-8173-298354BA6D19}" name="Key" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{D965857D-7DBA-4B72-AA40-224EA05E9028}" name="NULL status " dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{6B3521BB-6CA6-4275-B112-F0EC44650512}" name="Remarks" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{938EBDA3-27A8-445D-933D-57F8E5A2BC58}" name="Column Name" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F5E68ECD-02E3-4E2E-BFC9-029A161DD895}" name="Type" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{51125E3C-49DC-4A6D-8173-298354BA6D19}" name="Key" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{D965857D-7DBA-4B72-AA40-224EA05E9028}" name="NULL status " dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{6B3521BB-6CA6-4275-B112-F0EC44650512}" name="Remarks" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{45296934-4824-481E-8750-A0DF83389DBA}" name="Таблица10" displayName="Таблица10" ref="A23:E29" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowBorderDxfId="109" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{45296934-4824-481E-8750-A0DF83389DBA}" name="Таблица10" displayName="Таблица10" ref="A23:E29" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="A23:E29" xr:uid="{45296934-4824-481E-8750-A0DF83389DBA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1581BBEC-043A-49D3-882E-E8EC729C3F37}" name="Column Name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D64581CB-D24F-49E3-A22B-22881111C868}" name="Type" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{C756515C-5E67-47FB-81EA-F9D2366869A9}" name="Key" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{08C1CBDC-1B9B-4170-9CAB-75AC24477D33}" name="NULL status " dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{BFC2E35A-31B0-4A0F-9E03-9593F6B2F8CA}" name="Remarks" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{1581BBEC-043A-49D3-882E-E8EC729C3F37}" name="Column Name" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{D64581CB-D24F-49E3-A22B-22881111C868}" name="Type" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{C756515C-5E67-47FB-81EA-F9D2366869A9}" name="Key" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{08C1CBDC-1B9B-4170-9CAB-75AC24477D33}" name="NULL status " dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{BFC2E35A-31B0-4A0F-9E03-9593F6B2F8CA}" name="Remarks" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3297,645 +3297,645 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="15" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="15"/>
-    <col min="14" max="14" width="15.7109375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="13" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="15" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="15" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="15" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="30.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="12" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="12"/>
+    <col min="14" max="14" width="15.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="13" style="12" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="12" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="G1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="N1" s="16" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
+      <c r="N1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="G13" s="16" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="N13" s="16" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="N13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="N16" s="19" t="s">
+      <c r="K16" s="26"/>
+      <c r="N16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="32"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="G22" s="16" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
       <c r="N22" s="34" t="s">
         <v>70</v>
       </c>
@@ -3944,279 +3944,279 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="36"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R25" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="Q26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="R26" s="28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="Q27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="N28" s="20" t="s">
+      <c r="E28" s="15"/>
+      <c r="N28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="Q28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="R28" s="37" t="s">
+      <c r="R28" s="28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="37" t="s">
+      <c r="R29" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E32" s="15" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E32" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4256,16 +4256,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -4282,139 +4282,139 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="30" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="30" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4430,23 +4430,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862677DE-292B-40BB-B576-5DF72EB5AC99}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="34" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>98</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="F1" s="41"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>96</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>124</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>97</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>112</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="F7" s="41"/>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>96</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>124</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>97</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>114</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="F13" s="41"/>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>96</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>97</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>115</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>124</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>97</v>
       </c>

--- a/lab3/Описание моделей.xlsx
+++ b/lab3/Описание моделей.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\bmstu_labs\data-base-labs\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\БД\data-base-labs\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F275D-5117-4C13-A146-07DB54F2BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D7EFF-CBBE-4562-B3F3-E446F6618041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание структуры таблиц" sheetId="1" r:id="rId1"/>
-    <sheet name="Список всех связей" sheetId="3" r:id="rId2"/>
-    <sheet name="Правила изменений" sheetId="2" r:id="rId3"/>
+    <sheet name="Ограничения мин. Кардинальности" sheetId="2" r:id="rId2"/>
+    <sheet name="Список всех связей" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="151">
   <si>
     <t>Column Name</t>
   </si>
@@ -137,9 +137,6 @@
     <t>PartnerID</t>
   </si>
   <si>
-    <t>Уникальный ключ (AK7.1)</t>
-  </si>
-  <si>
     <t>Хардатон</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t xml:space="preserve">FK </t>
   </si>
   <si>
-    <t>NULL будет обзначать, что у команды нет девиза</t>
-  </si>
-  <si>
     <t>Участник</t>
   </si>
   <si>
@@ -272,18 +266,12 @@
     <t>CHAR (10)</t>
   </si>
   <si>
-    <t>Уникальный ключ AK5.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Суррогатный ключ </t>
   </si>
   <si>
     <t>Внешний ключ, отсылающий к отношению "Участник" (ParticipantID). Реализует связь "Капитан команды"</t>
   </si>
   <si>
-    <t>Уникальный ключ AK6.1</t>
-  </si>
-  <si>
     <t>NULL будет означать, что участник не студент МГТУ им. Н.Э. Баумана</t>
   </si>
   <si>
@@ -302,21 +290,12 @@
     <t>Внешний ключ, показывающий какая команда реализовала данный проект</t>
   </si>
   <si>
-    <t>Уникальный ключ AK4.1</t>
-  </si>
-  <si>
     <t>NULL будет означать, что команда, реализовавшая проект либо не может предоставить фото, либо не желает этого делать</t>
   </si>
   <si>
     <t xml:space="preserve">Операция </t>
   </si>
   <si>
-    <t>Действие над родительской таблицей</t>
-  </si>
-  <si>
-    <t>Действие над дочерней таблицей</t>
-  </si>
-  <si>
     <t>Вставка</t>
   </si>
   <si>
@@ -401,19 +380,10 @@
     <t>o-o</t>
   </si>
   <si>
-    <t>Изменение главного или внешнего ключа</t>
-  </si>
-  <si>
     <t>Подбор родительской записи "Мероприятие"</t>
   </si>
   <si>
-    <t>Ничего не требуется</t>
-  </si>
-  <si>
     <t>Подбор родительской записи "Партнёр"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Каскадное обновление </t>
   </si>
   <si>
     <t>Запрещено</t>
@@ -473,10 +443,64 @@
     <t>Внешний ключ, связывающий участника с его активной командой. NULL в этом контесте означает отсутсивте активной команды у участника</t>
   </si>
   <si>
-    <t>Разрешено, но участники должны выбрать новую команду, после удаления команда всех бывших участников станет  NULL</t>
-  </si>
-  <si>
-    <t>Разрешено, только если капитан не единсвтенный участник команды</t>
+    <t>Без ограничения</t>
+  </si>
+  <si>
+    <t>Запрет</t>
+  </si>
+  <si>
+    <t>Действие над родительской таблицей "Команда"</t>
+  </si>
+  <si>
+    <t>Действие над дочерней таблицей "Участник"</t>
+  </si>
+  <si>
+    <t>Без ограничений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Проект создан на хардатоне		</t>
+  </si>
+  <si>
+    <t>Действие над дочерней таблицей "Команда_Мероприятия"</t>
+  </si>
+  <si>
+    <t>Изменение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действие над родительской таблицей "Хардтон" </t>
+  </si>
+  <si>
+    <t>Действие над дочерней таблицей "Проект"</t>
+  </si>
+  <si>
+    <t>Разрешено, если новое значение внешнего ключа соответсвует некоторому значению в родительской  таблице "Хардтон".</t>
+  </si>
+  <si>
+    <t>Разрешено, если новое значение внешнего ключа соответсвует некоторому значению в родительской таблице  "Команда".</t>
+  </si>
+  <si>
+    <t>Действие над родительской таблицей "Классическое мероприятие"</t>
+  </si>
+  <si>
+    <t>Разрешено, удаление совершается Капитаном команды, после удаления у всех участников внешний ключ становится равным NULL. Команда так же удаляется, если в ней осталось 0 участников.</t>
+  </si>
+  <si>
+    <t>Действие над родительской  таблицей "Команда"</t>
+  </si>
+  <si>
+    <t>Разрешено, если капитан, не единсвтенный участник команды, то новым капитаном становиться случайный участник команды. Если же команда состоит только из капитана, она удаляется при удалении капитана</t>
+  </si>
+  <si>
+    <t>CHAR (300)</t>
+  </si>
+  <si>
+    <t>Уникальный ключ AK1.1</t>
+  </si>
+  <si>
+    <t>CHAR (200)</t>
+  </si>
+  <si>
+    <t>NULL будет обозначать, что у команды нет девиза</t>
   </si>
 </sst>
 </file>
@@ -837,25 +861,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,9 +894,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,13 +935,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,6 +1078,44 @@
         <charset val="204"/>
         <scheme val="major"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1177,34 +1235,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2811,20 +2841,6 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="45">
-  <autoFilter ref="A1:E9" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="40"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A2:C5" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}"/>
   <tableColumns count="3">
@@ -2836,7 +2852,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="E2:G5" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}"/>
   <tableColumns count="3">
@@ -2848,73 +2864,87 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A8:C11" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}" name="Таблица121617" displayName="Таблица121617" ref="E8:G11" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="E8:G11" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DC232AB2-1A8A-46F6-826C-C41D72BF6521}" name="Операция " dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{3ECE36ED-FB9C-4E27-8CE4-34D78B0F2FB9}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{12D67879-9503-495F-B01E-943D2F23BB75}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}" name="Таблица121617" displayName="Таблица121617" ref="E8:G11" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="E8:G11" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}" name="Таблица12161718" displayName="Таблица12161718" ref="E14:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="E14:G17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC232AB2-1A8A-46F6-826C-C41D72BF6521}" name="Операция " dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{3ECE36ED-FB9C-4E27-8CE4-34D78B0F2FB9}" name="Действие над родительской таблицей" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{12D67879-9503-495F-B01E-943D2F23BB75}" name="Действие над дочерней таблицей" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D088C6AB-2FF0-4150-AFC4-49D652038259}" name="Операция " dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{69179C73-05B4-4063-9C63-5A91D2B9D3FD}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{27289A53-EBAB-410C-BD36-81ADA3ED179E}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}" name="Таблица12161718" displayName="Таблица12161718" ref="E14:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="E14:G17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}" name="Таблица1216171819" displayName="Таблица1216171819" ref="A14:C17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A14:C17" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D088C6AB-2FF0-4150-AFC4-49D652038259}" name="Операция " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{69179C73-05B4-4063-9C63-5A91D2B9D3FD}" name="Действие над родительской таблицей" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{27289A53-EBAB-410C-BD36-81ADA3ED179E}" name="Действие над дочерней таблицей" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{0CDA3B41-3662-4B75-B3B0-38D439ABA363}" name="Операция " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{54335295-F20F-41B9-9FED-1BB09BB2D50F}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2AC780B6-A3D8-494E-A671-56D05AC8BD65}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}" name="Таблица1216171819" displayName="Таблица1216171819" ref="A14:C17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A14:C17" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}" name="Таблица121617181920" displayName="Таблица121617181920" ref="A20:C23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A20:C23" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CDA3B41-3662-4B75-B3B0-38D439ABA363}" name="Операция " dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{54335295-F20F-41B9-9FED-1BB09BB2D50F}" name="Действие над родительской таблицей" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2AC780B6-A3D8-494E-A671-56D05AC8BD65}" name="Действие над дочерней таблицей" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{9DEE324A-7951-4878-AE78-320B65819691}" name="Операция " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F8C87BC2-B345-4864-B086-08223059526A}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{71221CD6-A78B-4CF4-B664-0BD8AC3ADD4B}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}" name="Таблица121617181920" displayName="Таблица121617181920" ref="A20:C23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A20:C23" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}" name="Таблица12161718192021" displayName="Таблица12161718192021" ref="E20:G23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="E20:G23" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9DEE324A-7951-4878-AE78-320B65819691}" name="Операция " dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F8C87BC2-B345-4864-B086-08223059526A}" name="Действие над родительской таблицей" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{71221CD6-A78B-4CF4-B664-0BD8AC3ADD4B}" name="Действие над дочерней таблицей" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{3B0CBF4B-C263-402C-B44D-D3666B74E6DE}" name="Операция " dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D3479BE3-4AA8-403D-B20B-352507DDA74C}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{559BF620-9853-472A-B8BC-53A63F0D1AFC}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}" name="Таблица12161718192021" displayName="Таблица12161718192021" ref="E20:G23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="E20:G23" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B0CBF4B-C263-402C-B44D-D3666B74E6DE}" name="Операция " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D3479BE3-4AA8-403D-B20B-352507DDA74C}" name="Действие над родительской таблицей" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{559BF620-9853-472A-B8BC-53A63F0D1AFC}" name="Действие над дочерней таблицей" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="45">
+  <autoFilter ref="A1:E9" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3297,927 +3327,926 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="12" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="12"/>
-    <col min="14" max="14" width="15.6640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="13" style="12" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" style="12" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="12"/>
+    <col min="1" max="1" width="30.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="10" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="10"/>
+    <col min="14" max="14" width="15.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="G1" s="31" t="s">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="G1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="N1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
-      <c r="N1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="N3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="N13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="F14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R14" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="Q15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="R15" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="N16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="N22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="N28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="N13" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="33"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="N16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="R29" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E32" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-      <c r="N22" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="36"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="R25" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="N28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E32" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4249,569 +4278,391 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C1CDE-30ED-4CFF-9BF7-9700AC224619}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862677DE-292B-40BB-B576-5DF72EB5AC99}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="E1" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="E1" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="E7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="E13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="E19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="E7" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="E13" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="E19" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4838,4 +4689,182 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C1CDE-30ED-4CFF-9BF7-9700AC224619}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/lab3/Описание моделей.xlsx
+++ b/lab3/Описание моделей.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\БД\data-base-labs\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\bmstu_labs\data-base-labs\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D7EFF-CBBE-4562-B3F3-E446F6618041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9409B05-B750-4649-8F60-6A11A94247DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание структуры таблиц" sheetId="1" r:id="rId1"/>
@@ -993,6 +993,97 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1078,6 +1169,166 @@
         <charset val="204"/>
         <scheme val="major"/>
       </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1117,6 +1368,58 @@
         <scheme val="major"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1277,58 +1580,6 @@
         <scheme val="major"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1475,257 +1726,6 @@
         <scheme val="major"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2841,110 +2841,110 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A2:C5" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A222FEE6-EE5D-4CD4-83E4-A180EDBAF8BB}" name="Операция " dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{CE92067A-59BA-45AE-A4C5-D3AEDEAF3BDF}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{B43815AA-C7E1-4002-BB37-3390D7D49602}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{A222FEE6-EE5D-4CD4-83E4-A180EDBAF8BB}" name="Операция " dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{CE92067A-59BA-45AE-A4C5-D3AEDEAF3BDF}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{B43815AA-C7E1-4002-BB37-3390D7D49602}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="E2:G5" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3C3273F-ED53-41E2-A91C-63EC99055BC1}" name="Операция " dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{F4929F41-63CD-4311-AEBF-497360247261}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{A4FDD04E-F410-4E5A-9B9E-F352A10C5421}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{D3C3273F-ED53-41E2-A91C-63EC99055BC1}" name="Операция " dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{F4929F41-63CD-4311-AEBF-497360247261}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{A4FDD04E-F410-4E5A-9B9E-F352A10C5421}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A8:C11" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}" name="Таблица121617" displayName="Таблица121617" ref="E8:G11" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}" name="Таблица121617" displayName="Таблица121617" ref="E8:G11" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="E8:G11" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC232AB2-1A8A-46F6-826C-C41D72BF6521}" name="Операция " dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{3ECE36ED-FB9C-4E27-8CE4-34D78B0F2FB9}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{12D67879-9503-495F-B01E-943D2F23BB75}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DC232AB2-1A8A-46F6-826C-C41D72BF6521}" name="Операция " dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{3ECE36ED-FB9C-4E27-8CE4-34D78B0F2FB9}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{12D67879-9503-495F-B01E-943D2F23BB75}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}" name="Таблица12161718" displayName="Таблица12161718" ref="E14:G17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}" name="Таблица12161718" displayName="Таблица12161718" ref="E14:G17" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="E14:G17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D088C6AB-2FF0-4150-AFC4-49D652038259}" name="Операция " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{69179C73-05B4-4063-9C63-5A91D2B9D3FD}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{27289A53-EBAB-410C-BD36-81ADA3ED179E}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D088C6AB-2FF0-4150-AFC4-49D652038259}" name="Операция " dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{69179C73-05B4-4063-9C63-5A91D2B9D3FD}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{27289A53-EBAB-410C-BD36-81ADA3ED179E}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}" name="Таблица1216171819" displayName="Таблица1216171819" ref="A14:C17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}" name="Таблица1216171819" displayName="Таблица1216171819" ref="A14:C17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A14:C17" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CDA3B41-3662-4B75-B3B0-38D439ABA363}" name="Операция " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{54335295-F20F-41B9-9FED-1BB09BB2D50F}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2AC780B6-A3D8-494E-A671-56D05AC8BD65}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{0CDA3B41-3662-4B75-B3B0-38D439ABA363}" name="Операция " dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{54335295-F20F-41B9-9FED-1BB09BB2D50F}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2AC780B6-A3D8-494E-A671-56D05AC8BD65}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}" name="Таблица121617181920" displayName="Таблица121617181920" ref="A20:C23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}" name="Таблица121617181920" displayName="Таблица121617181920" ref="A20:C23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A20:C23" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9DEE324A-7951-4878-AE78-320B65819691}" name="Операция " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F8C87BC2-B345-4864-B086-08223059526A}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{71221CD6-A78B-4CF4-B664-0BD8AC3ADD4B}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9DEE324A-7951-4878-AE78-320B65819691}" name="Операция " dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F8C87BC2-B345-4864-B086-08223059526A}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{71221CD6-A78B-4CF4-B664-0BD8AC3ADD4B}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}" name="Таблица12161718192021" displayName="Таблица12161718192021" ref="E20:G23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}" name="Таблица12161718192021" displayName="Таблица12161718192021" ref="E20:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="E20:G23" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B0CBF4B-C263-402C-B44D-D3666B74E6DE}" name="Операция " dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D3479BE3-4AA8-403D-B20B-352507DDA74C}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{559BF620-9853-472A-B8BC-53A63F0D1AFC}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3B0CBF4B-C263-402C-B44D-D3666B74E6DE}" name="Операция " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D3479BE3-4AA8-403D-B20B-352507DDA74C}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{559BF620-9853-472A-B8BC-53A63F0D1AFC}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E9" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3327,33 +3327,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="12" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="10" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="10"/>
-    <col min="14" max="14" width="15.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="10" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="10"/>
+    <col min="14" max="14" width="15.6640625" style="10" customWidth="1"/>
     <col min="15" max="15" width="13" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="10"/>
+    <col min="16" max="16" width="15.88671875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>126</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>36</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>41</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="Q22" s="33"/>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>83</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>60</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>33</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E32" s="10" t="s">
         <v>43</v>
       </c>
@@ -4281,23 +4281,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862677DE-292B-40BB-B576-5DF72EB5AC99}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="43" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="38.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>91</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>136</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>90</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>107</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>138</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>108</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>88</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>138</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>90</v>
       </c>
@@ -4699,16 +4699,16 @@
       <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>95</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>53</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>98</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>98</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>98</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>98</v>
       </c>

--- a/lab3/Описание моделей.xlsx
+++ b/lab3/Описание моделей.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\bmstu_labs\data-base-labs\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9409B05-B750-4649-8F60-6A11A94247DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B51489-95A2-4470-BF10-CE5E7E270459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание структуры таблиц" sheetId="1" r:id="rId1"/>
     <sheet name="Ограничения мин. Кардинальности" sheetId="2" r:id="rId2"/>
     <sheet name="Список всех связей" sheetId="3" r:id="rId3"/>
+    <sheet name="БЕЗ СТИЛЕЙ" sheetId="4" r:id="rId4"/>
+    <sheet name="БЕЗ СТИЛЕЙ 2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="165">
   <si>
     <t>Column Name</t>
   </si>
@@ -83,18 +85,9 @@
     <t>Суррогатный ключ</t>
   </si>
   <si>
-    <t>CHAR (150)</t>
-  </si>
-  <si>
     <t>CANDIDATE KEY</t>
   </si>
   <si>
-    <t>CHAR (1000)</t>
-  </si>
-  <si>
-    <t>CHAR (100)</t>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -164,9 +157,6 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>CHAR (500)</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -221,9 +211,6 @@
     <t>INTGER</t>
   </si>
   <si>
-    <t>CHAR (20)</t>
-  </si>
-  <si>
     <t xml:space="preserve">NULL </t>
   </si>
   <si>
@@ -263,13 +250,7 @@
     <t>Специализация</t>
   </si>
   <si>
-    <t>CHAR (10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Суррогатный ключ </t>
-  </si>
-  <si>
-    <t>Внешний ключ, отсылающий к отношению "Участник" (ParticipantID). Реализует связь "Капитан команды"</t>
   </si>
   <si>
     <t>NULL будет означать, что участник не студент МГТУ им. Н.Э. Баумана</t>
@@ -491,23 +472,86 @@
     <t>Разрешено, если капитан, не единсвтенный участник команды, то новым капитаном становиться случайный участник команды. Если же команда состоит только из капитана, она удаляется при удалении капитана</t>
   </si>
   <si>
-    <t>CHAR (300)</t>
-  </si>
-  <si>
     <t>Уникальный ключ AK1.1</t>
   </si>
   <si>
-    <t>CHAR (200)</t>
-  </si>
-  <si>
     <t>NULL будет обозначать, что у команды нет девиза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мероприятие </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Классическое мероприятие </t>
+  </si>
+  <si>
+    <t>Мероприятие - Классическое мероприятие </t>
+  </si>
+  <si>
+    <t>Идентифицирубщая  1:1</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хардатон </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мероприятие - Хардатон</t>
+  </si>
+  <si>
+    <t>Внешний ключ, отсылающий к отношению "Участник" (ParticipantID). Реализует связь "Капитан команды". Значение NULL означает, что у команды отсутсвует капитан</t>
+  </si>
+  <si>
+    <t>NVARCHAR (150)</t>
+  </si>
+  <si>
+    <t>Действие над дочерней таблицей "Классическое мероприятие"</t>
+  </si>
+  <si>
+    <t>Действие над родительской  таблицей "Мероприятие"</t>
+  </si>
+  <si>
+    <t>Действие над дочерней таблицей "Хардатон"</t>
+  </si>
+  <si>
+    <t>Разрешено, но удаляются записи из обеих таблиц</t>
+  </si>
+  <si>
+    <t>NVARCHAR (1000)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (300)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (500)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (100)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (MAX)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (20)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (200)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (10)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (30)</t>
+  </si>
+  <si>
+    <t>NVARCHAR (2048)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,8 +608,26 @@
       <charset val="204"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,8 +664,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -857,11 +943,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -981,55 +1082,649 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+  <dxfs count="264">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1039,56 +1734,41 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1098,11 +1778,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1112,11 +1800,349 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1136,68 +2162,1360 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1216,68 +3534,52 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1285,8 +3587,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1296,78 +3602,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1375,8 +3622,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1386,68 +3637,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1455,8 +3657,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1466,336 +3672,38 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1805,121 +3713,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1938,6 +3736,1201 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2827,236 +5820,506 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66334635-8D47-4190-AB41-6FE12B269CF9}" name="Таблица3" displayName="Таблица3" ref="A2:E11" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66334635-8D47-4190-AB41-6FE12B269CF9}" name="Таблица3" displayName="Таблица3" ref="A2:E11" totalsRowShown="0" headerRowDxfId="263" dataDxfId="262">
   <autoFilter ref="A2:E11" xr:uid="{66334635-8D47-4190-AB41-6FE12B269CF9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{99178D92-C410-4414-85E7-29073A815EBA}" name="Column Name" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{497916AA-1392-40E6-95F3-074EB049B1AA}" name="Type" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{D043B4E0-C2A0-4C1F-8EFA-103F9D71396A}" name="Key" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{6431490B-1EDB-48A0-9CF9-280D8E6E19C3}" name="NULL status " dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{7F72B51A-4255-47E0-8585-DB2BCF45EE86}" name="Remarks" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{99178D92-C410-4414-85E7-29073A815EBA}" name="Column Name" dataDxfId="261"/>
+    <tableColumn id="2" xr3:uid="{497916AA-1392-40E6-95F3-074EB049B1AA}" name="Type" dataDxfId="260"/>
+    <tableColumn id="3" xr3:uid="{D043B4E0-C2A0-4C1F-8EFA-103F9D71396A}" name="Key" dataDxfId="259"/>
+    <tableColumn id="4" xr3:uid="{6431490B-1EDB-48A0-9CF9-280D8E6E19C3}" name="NULL status " dataDxfId="258"/>
+    <tableColumn id="5" xr3:uid="{7F72B51A-4255-47E0-8585-DB2BCF45EE86}" name="Remarks" dataDxfId="257"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}" name="Таблица12" displayName="Таблица12" ref="A2:C5" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
   <autoFilter ref="A2:C5" xr:uid="{5BA4DB45-8CBC-45B1-B670-EFD20862F9CE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A222FEE6-EE5D-4CD4-83E4-A180EDBAF8BB}" name="Операция " dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{CE92067A-59BA-45AE-A4C5-D3AEDEAF3BDF}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{B43815AA-C7E1-4002-BB37-3390D7D49602}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{A222FEE6-EE5D-4CD4-83E4-A180EDBAF8BB}" name="Операция " dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{CE92067A-59BA-45AE-A4C5-D3AEDEAF3BDF}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{B43815AA-C7E1-4002-BB37-3390D7D49602}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}" name="Таблица1214" displayName="Таблица1214" ref="E2:G5" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="E2:G5" xr:uid="{62ACB0E3-641F-47FA-BD4F-B7681477F454}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3C3273F-ED53-41E2-A91C-63EC99055BC1}" name="Операция " dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{F4929F41-63CD-4311-AEBF-497360247261}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{A4FDD04E-F410-4E5A-9B9E-F352A10C5421}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{D3C3273F-ED53-41E2-A91C-63EC99055BC1}" name="Операция " dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{F4929F41-63CD-4311-AEBF-497360247261}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{A4FDD04E-F410-4E5A-9B9E-F352A10C5421}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}" name="Таблица1216" displayName="Таблица1216" ref="A8:C11" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <autoFilter ref="A8:C11" xr:uid="{EA31F29F-C6EF-4101-A4C0-9224A1137D68}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{A0E1DAD7-B71D-4707-82CD-755EE3135B20}" name="Операция " dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{6C146020-7822-4DEF-9A71-C21F462173D0}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{84F4FFF8-C098-4492-BFA0-CBAD79D6B412}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}" name="Таблица121617" displayName="Таблица121617" ref="E8:G11" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}" name="Таблица121617" displayName="Таблица121617" ref="E8:G11" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="E8:G11" xr:uid="{74ED1DCB-1224-42A9-9BE2-D8C4C566DA94}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC232AB2-1A8A-46F6-826C-C41D72BF6521}" name="Операция " dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{3ECE36ED-FB9C-4E27-8CE4-34D78B0F2FB9}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{12D67879-9503-495F-B01E-943D2F23BB75}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{DC232AB2-1A8A-46F6-826C-C41D72BF6521}" name="Операция " dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{3ECE36ED-FB9C-4E27-8CE4-34D78B0F2FB9}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{12D67879-9503-495F-B01E-943D2F23BB75}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}" name="Таблица12161718" displayName="Таблица12161718" ref="E14:G17" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}" name="Таблица12161718" displayName="Таблица12161718" ref="E14:G17" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="E14:G17" xr:uid="{8A7AA15D-871F-4A54-A759-3349A8637A74}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D088C6AB-2FF0-4150-AFC4-49D652038259}" name="Операция " dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{69179C73-05B4-4063-9C63-5A91D2B9D3FD}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{27289A53-EBAB-410C-BD36-81ADA3ED179E}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D088C6AB-2FF0-4150-AFC4-49D652038259}" name="Операция " dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{69179C73-05B4-4063-9C63-5A91D2B9D3FD}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{27289A53-EBAB-410C-BD36-81ADA3ED179E}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}" name="Таблица1216171819" displayName="Таблица1216171819" ref="A14:C17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}" name="Таблица1216171819" displayName="Таблица1216171819" ref="A14:C17" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A14:C17" xr:uid="{75A08EF5-3ACC-4937-B26F-9CF4F5C8FC90}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CDA3B41-3662-4B75-B3B0-38D439ABA363}" name="Операция " dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{54335295-F20F-41B9-9FED-1BB09BB2D50F}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{2AC780B6-A3D8-494E-A671-56D05AC8BD65}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0CDA3B41-3662-4B75-B3B0-38D439ABA363}" name="Операция " dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{54335295-F20F-41B9-9FED-1BB09BB2D50F}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{2AC780B6-A3D8-494E-A671-56D05AC8BD65}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}" name="Таблица121617181920" displayName="Таблица121617181920" ref="A20:C23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}" name="Таблица121617181920" displayName="Таблица121617181920" ref="A20:C23" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="A20:C23" xr:uid="{26719D3F-4CEB-4E22-93FF-F4226F3B24BC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9DEE324A-7951-4878-AE78-320B65819691}" name="Операция " dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F8C87BC2-B345-4864-B086-08223059526A}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{71221CD6-A78B-4CF4-B664-0BD8AC3ADD4B}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{9DEE324A-7951-4878-AE78-320B65819691}" name="Операция " dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{F8C87BC2-B345-4864-B086-08223059526A}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{71221CD6-A78B-4CF4-B664-0BD8AC3ADD4B}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}" name="Таблица12161718192021" displayName="Таблица12161718192021" ref="E20:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}" name="Таблица12161718192021" displayName="Таблица12161718192021" ref="E20:G23" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="E20:G23" xr:uid="{B59E590C-E96E-41B0-9E5C-C10C82D415C9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B0CBF4B-C263-402C-B44D-D3666B74E6DE}" name="Операция " dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D3479BE3-4AA8-403D-B20B-352507DDA74C}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{559BF620-9853-472A-B8BC-53A63F0D1AFC}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{3B0CBF4B-C263-402C-B44D-D3666B74E6DE}" name="Операция " dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{D3479BE3-4AA8-403D-B20B-352507DDA74C}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{559BF620-9853-472A-B8BC-53A63F0D1AFC}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E9" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E9" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7FB635A-F2E8-4A27-90BD-5459DDB8DDFF}" name="Таблица1216171819207" displayName="Таблица1216171819207" ref="A27:C30" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+  <autoFilter ref="A27:C30" xr:uid="{D7FB635A-F2E8-4A27-90BD-5459DDB8DDFF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{87CDE50A-64C4-450D-A0DB-0824036F30D6}" name="Операция " dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{1A486143-D44F-4AE0-A705-9524CB478A7B}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{E126A85C-6C0E-4DEE-B5D1-E88EB7DB2255}" name="Действие над дочерней таблицей &quot;Классическое мероприятие&quot;" dataDxfId="134"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AD1D8A9D-D6C0-4E1E-9FA7-26FF6DCEAAE0}" name="Таблица1216171819202115" displayName="Таблица1216171819202115" ref="E27:G30" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+  <autoFilter ref="E27:G30" xr:uid="{AD1D8A9D-D6C0-4E1E-9FA7-26FF6DCEAAE0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9E68A6FB-9CE1-45CC-88B6-5E1E477380C0}" name="Операция " dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{26478B61-3282-42CA-BC93-92C9FE047BF1}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{0BEB35A3-391D-475A-9AAD-68C6215EB106}" name="Действие над дочерней таблицей &quot;Хардатон&quot;" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DFEDA13-0365-4680-8F97-421CE79EE41B}" name="Таблица4" displayName="Таблица4" ref="N2:R6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DFEDA13-0365-4680-8F97-421CE79EE41B}" name="Таблица4" displayName="Таблица4" ref="N2:R6" totalsRowShown="0" headerRowDxfId="256" dataDxfId="254" headerRowBorderDxfId="255" tableBorderDxfId="253">
   <autoFilter ref="N2:R6" xr:uid="{4DFEDA13-0365-4680-8F97-421CE79EE41B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{300F214E-6553-4B03-A9E7-0367783B2F95}" name="Column Name" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{C09C79E9-A2AD-47CD-88CA-48BE1E54DD97}" name="Type" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{C52633CF-BDA4-4DD1-842C-0799CEDC1C33}" name="Key" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{464C6A89-E4C0-4814-9BDE-F07423EDFD1D}" name="NULL status " dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{B887490C-A26C-472C-B78E-BFD89FD0A28C}" name="Remarks" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{300F214E-6553-4B03-A9E7-0367783B2F95}" name="Column Name" dataDxfId="252"/>
+    <tableColumn id="2" xr3:uid="{C09C79E9-A2AD-47CD-88CA-48BE1E54DD97}" name="Type" dataDxfId="251"/>
+    <tableColumn id="3" xr3:uid="{C52633CF-BDA4-4DD1-842C-0799CEDC1C33}" name="Key" dataDxfId="250"/>
+    <tableColumn id="4" xr3:uid="{464C6A89-E4C0-4814-9BDE-F07423EDFD1D}" name="NULL status " dataDxfId="249"/>
+    <tableColumn id="5" xr3:uid="{B887490C-A26C-472C-B78E-BFD89FD0A28C}" name="Remarks" dataDxfId="248"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E11" totalsRowShown="0" dataDxfId="144">
+  <autoFilter ref="A1:E11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="139"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{FB241949-2B51-4398-B031-38367A76454B}" name="Таблица322" displayName="Таблица322" ref="A2:E11" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A2:E11" xr:uid="{FB241949-2B51-4398-B031-38367A76454B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2BE3679E-D47C-468B-8917-1BB70236C997}" name="Column Name" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{C54F87EF-5712-499C-A132-2DF0EBF04CB2}" name="Type" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{6ECBD9FD-69E4-496C-B5E3-96EFA24A74BD}" name="Key" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{FD55EF89-7708-4358-8832-52B00881CB83}" name="NULL status " dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{D6E33276-259A-437E-B3C6-E6FB8EF753E1}" name="Remarks" dataDxfId="108"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AF0916A6-F2C9-4A2E-BA67-9FB8748B3C4D}" name="Таблица423" displayName="Таблица423" ref="N2:R6" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" headerRowBorderDxfId="127" tableBorderDxfId="128">
+  <autoFilter ref="N2:R6" xr:uid="{AF0916A6-F2C9-4A2E-BA67-9FB8748B3C4D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{285A25E1-7B84-4387-BAD0-A1445A9AB333}" name="Column Name" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{86102C63-DFB1-4837-88A2-60DE5135BAF7}" name="Type" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{7044064E-23E5-45DA-88FE-FB321EB5D91A}" name="Key" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{45CF3CBC-2EC5-48FD-A5FB-0B1D2C390C72}" name="NULL status " dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{F65DBF95-A28A-4475-9C7F-97618E80F784}" name="Remarks" dataDxfId="101"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{74F4D43B-9551-4D03-81B4-B16534325D12}" name="Таблица524" displayName="Таблица524" ref="A14:E20" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" headerRowBorderDxfId="125" tableBorderDxfId="126">
+  <autoFilter ref="A14:E20" xr:uid="{74F4D43B-9551-4D03-81B4-B16534325D12}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{88B6A5B1-F2A3-47EB-B00E-7BBA895B5AB8}" name="Column Name" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{CF80F04F-D7E8-4DAC-A04E-6288C6E990F8}" name="Type" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{2C00B2A7-B652-4D4B-B853-E4D37E10BA85}" name="Key" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{1C756B77-BA8A-4753-B975-E2807A111E4D}" name="NULL status " dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{3021B769-09BF-4DE8-B8A6-4DE4A5BE4BF6}" name="Remarks" dataDxfId="94"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E4505E00-9CC9-4447-9298-CE5323F885C8}" name="Таблица125" displayName="Таблица125" ref="G14:K16" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowBorderDxfId="123" tableBorderDxfId="124">
+  <autoFilter ref="G14:K16" xr:uid="{E4505E00-9CC9-4447-9298-CE5323F885C8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{449FD2FC-3D6E-4A14-80DE-32F04CCE8038}" name="Column Name" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{E4B00FE2-6FB3-4F71-B257-37E2F1295691}" name="Type" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{06C1E6E2-A03E-4C16-86E0-3BFA3AFA29F6}" name="Key" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{0346E72C-E6D3-43E2-A3B8-F10B76A7DFF1}" name="NULL status " dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{7D09ACF9-0AA7-48FC-B088-34EBE724C224}" name="Remarks" dataDxfId="87"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{471B95D7-08EB-4430-ADB1-77AFB7C63414}" name="Таблица1326" displayName="Таблица1326" ref="G2:K4" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowBorderDxfId="121" tableBorderDxfId="122">
+  <autoFilter ref="G2:K4" xr:uid="{471B95D7-08EB-4430-ADB1-77AFB7C63414}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7E0C4D16-DBEB-4DF4-89B8-0E112A1D1108}" name="Column Name" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{8375CE9F-3A2E-4822-94FC-70048631A9C1}" name="Type" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{3D8B88B2-9A44-41FC-8465-9C02D8A36EF0}" name="Key" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{DDB57B97-8553-47A3-9201-205859346D0A}" name="NULL status " dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{2988429C-D69D-47FB-8584-A64E58B53E83}" name="Remarks" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{706718DC-0538-4117-83A8-AF653DCA73E0}" name="Таблица727" displayName="Таблица727" ref="N14:R18" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" headerRowBorderDxfId="119" tableBorderDxfId="120">
+  <autoFilter ref="N14:R18" xr:uid="{706718DC-0538-4117-83A8-AF653DCA73E0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3DDA7C7B-9E86-49DA-91A0-B4A620B5A65A}" name="Column Name" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{7648920C-1E18-40C5-84F0-17FC10A47968}" name="Type" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{4C317568-89FE-4A3F-92A0-1CFC6A8321B5}" name="Key" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{FB1A4D08-0464-4264-8081-47685A7A88A1}" name="NULL status " dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{23F3CF53-BFA6-47E2-BDE0-22C87472E712}" name="Remarks" dataDxfId="73"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{D5845F2D-FF89-41D8-98AC-1BF7714E0E4F}" name="Таблица828" displayName="Таблица828" ref="G23:K25" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowBorderDxfId="117" tableBorderDxfId="118">
+  <autoFilter ref="G23:K25" xr:uid="{D5845F2D-FF89-41D8-98AC-1BF7714E0E4F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{13DE4F10-79A2-4252-A06F-32AFC7BE30B1}" name="Column Name" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{D14C38BF-70D1-420B-8377-63DBF21927A5}" name="Type" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{29A71359-3B43-4F77-8EBB-C0FBE78BE294}" name="Key" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{55F893D2-6C93-4494-A041-C2A8D4ECF1E7}" name="NULL status " dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{2876C115-9A20-4C69-AAC3-21350516C1C9}" name="Remarks" dataDxfId="66"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{8D21F323-9FA6-4084-80CA-46C3423D1A77}" name="Таблица929" displayName="Таблица929" ref="N23:R29" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" headerRowBorderDxfId="115" tableBorderDxfId="116">
+  <autoFilter ref="N23:R29" xr:uid="{8D21F323-9FA6-4084-80CA-46C3423D1A77}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45037AD1-133A-4435-A2ED-F51C96999C90}" name="Column Name" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{CFF34691-210D-4494-A4B8-0D062DC61D89}" name="Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{4B237E48-85BD-4D4A-8183-90E323F7EAD2}" name="Key" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{BBFBA165-B2B2-419A-8FCA-3CF7C40AF1AA}" name="NULL status " dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{61198630-50E1-45BE-B476-F88712F9EC28}" name="Remarks" dataDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{8F4274A5-C14F-4B64-8F46-4050376EBFB7}" name="Таблица1030" displayName="Таблица1030" ref="A23:E29" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="113" tableBorderDxfId="114">
+  <autoFilter ref="A23:E29" xr:uid="{8F4274A5-C14F-4B64-8F46-4050376EBFB7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D0191FA5-D1A9-408F-9B63-2F5F46B2AA5D}" name="Column Name" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{6D666CFD-9995-4C93-9FFB-FA1FBEFF1F32}" name="Type" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{A7DA8956-F54F-4645-92AC-EC7CECCD6CF3}" name="Key" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{FB89E214-DB49-411E-A0C6-14607D22C4EC}" name="NULL status " dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{419A0F1D-D859-489A-A04B-B464B16D7BB6}" name="Remarks" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3E028C6-D118-4D99-BB4D-9EA965FDCC38}" name="Таблица5" displayName="Таблица5" ref="A14:E20" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3E028C6-D118-4D99-BB4D-9EA965FDCC38}" name="Таблица5" displayName="Таблица5" ref="A14:E20" totalsRowShown="0" headerRowDxfId="247" dataDxfId="245" headerRowBorderDxfId="246" tableBorderDxfId="244">
   <autoFilter ref="A14:E20" xr:uid="{C3E028C6-D118-4D99-BB4D-9EA965FDCC38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055CD5C0-F6F0-4C22-8AF5-ECF61F4A64BE}" name="Column Name" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{C5A423A6-4566-4749-8043-026FB97BA6A3}" name="Type" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{67644188-A927-49EC-BDF9-537BD894D598}" name="Key" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{F8E8060A-1ACB-4C2E-A563-50A696A661BB}" name="NULL status " dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{9026B003-F36F-4620-A766-0E8316C9108E}" name="Remarks" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{055CD5C0-F6F0-4C22-8AF5-ECF61F4A64BE}" name="Column Name" dataDxfId="243"/>
+    <tableColumn id="2" xr3:uid="{C5A423A6-4566-4749-8043-026FB97BA6A3}" name="Type" dataDxfId="242"/>
+    <tableColumn id="3" xr3:uid="{67644188-A927-49EC-BDF9-537BD894D598}" name="Key" dataDxfId="241"/>
+    <tableColumn id="4" xr3:uid="{F8E8060A-1ACB-4C2E-A563-50A696A661BB}" name="NULL status " dataDxfId="240"/>
+    <tableColumn id="5" xr3:uid="{9026B003-F36F-4620-A766-0E8316C9108E}" name="Remarks" dataDxfId="239"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{77A3543C-E53F-48CA-B3E8-5DCB91ACBF86}" name="Таблица1231" displayName="Таблица1231" ref="A2:C5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A2:C5" xr:uid="{77A3543C-E53F-48CA-B3E8-5DCB91ACBF86}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1123473F-49AD-4EAF-99FA-CD866133510D}" name="Операция " dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{B5B4403B-5CF0-4258-B07A-DDA7F2E76B01}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{E2125D7B-4B25-4465-B9B1-775C71715998}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{E4BD25C5-534F-4E47-8E53-F733BD0D1778}" name="Таблица121432" displayName="Таблица121432" ref="E2:G5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="E2:G5" xr:uid="{E4BD25C5-534F-4E47-8E53-F733BD0D1778}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BEC3F1B4-1BC0-40D5-9C7F-A91C921DEF55}" name="Операция " dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{E53EC474-F680-49D3-A370-A6199FCA9320}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{ADAD645F-B4D3-4959-8224-B592687D2D47}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{053C0BCA-2AA3-4C7D-8913-1E0BAE139C0C}" name="Таблица121633" displayName="Таблица121633" ref="A8:C11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A8:C11" xr:uid="{053C0BCA-2AA3-4C7D-8913-1E0BAE139C0C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{63795A1D-A3E0-49E5-8042-6986A18A70C7}" name="Операция " dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{C70B8B6C-8779-4273-B748-F2F734477914}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{3AAB267A-D8F2-4AF9-A4F9-268B371A0E28}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27B93E2C-732E-45CB-88CF-74C848D07362}" name="Таблица12161734" displayName="Таблица12161734" ref="E8:G11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="E8:G11" xr:uid="{27B93E2C-732E-45CB-88CF-74C848D07362}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D64AD008-9225-4100-B2C6-F8C2E5A8CC2D}" name="Операция " dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{AEA0550C-D4EB-4C72-81FB-ED0DF78A5C6F}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{57942D60-DD9B-4119-B51D-58ED279E6FB4}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{43A40CCA-56D3-4433-BF4B-98948B8DC89F}" name="Таблица1216171835" displayName="Таблица1216171835" ref="E14:G17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="E14:G17" xr:uid="{43A40CCA-56D3-4433-BF4B-98948B8DC89F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C1A24EED-E6D8-47CD-A6BE-881007B48921}" name="Операция " dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{460F587C-0691-4E9A-B12D-929DD0DDCC97}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9ADE3FF1-7DF2-4494-B22A-55D16CF1CBDD}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{9317021A-E995-4D03-B80C-F96450491F93}" name="Таблица121617181936" displayName="Таблица121617181936" ref="A14:C17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A14:C17" xr:uid="{9317021A-E995-4D03-B80C-F96450491F93}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0770EF3D-2B03-47B8-BC4C-9D12A19306FB}" name="Операция " dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4149FA3F-C2EF-4131-9D9D-7F9B35E32731}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{3FE65896-31D3-4270-B77D-2906441CF3E9}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{96BD0666-AE45-4B9F-82A7-237CBFCE21BE}" name="Таблица12161718192037" displayName="Таблица12161718192037" ref="A20:C23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A20:C23" xr:uid="{96BD0666-AE45-4B9F-82A7-237CBFCE21BE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FE67C039-3899-460F-8083-A5589C3001D9}" name="Операция " dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FDF4E95A-51D4-483A-BAB8-1697A82B04D5}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D90080D1-98FB-4948-A220-46ABE1B007EB}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{2EEEA358-A188-4E79-B2A6-0AD7AF14C183}" name="Таблица1216171819202138" displayName="Таблица1216171819202138" ref="E20:G23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="E20:G23" xr:uid="{2EEEA358-A188-4E79-B2A6-0AD7AF14C183}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{60E60F50-F6D2-4FA5-AFA1-BF95885201AD}" name="Операция " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1C26076F-AA62-4DE9-BAB6-C2FDC5626E6E}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AE2B1016-1BD6-429B-9B16-36F8A54FC975}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{52D7EC25-F8C0-4CF5-8A46-13D5AAA220F6}" name="Таблица121617181920739" displayName="Таблица121617181920739" ref="A27:C30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A27:C30" xr:uid="{52D7EC25-F8C0-4CF5-8A46-13D5AAA220F6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5F5A7744-19CC-4C71-9CCF-C95306A140A4}" name="Операция " dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C106423E-013F-4E31-88BF-6631DBD8081C}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2A1DC86F-FC6A-469C-AD60-F01FF5878C6E}" name="Действие над дочерней таблицей &quot;Классическое мероприятие&quot;" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{B13FF6FB-ABAB-4B6E-AEC2-874E25EB3823}" name="Таблица121617181920211540" displayName="Таблица121617181920211540" ref="E27:G30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="E27:G30" xr:uid="{B13FF6FB-ABAB-4B6E-AEC2-874E25EB3823}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B6688BFC-D078-43D0-B295-AC78C0CE13E4}" name="Операция " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EE14EB63-88EC-44AD-9898-AD68CAC78137}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{89F11BFC-D4F1-40C3-A6BC-5E21EFA53D47}" name="Действие над дочерней таблицей &quot;Хардатон&quot;" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99B2BAAD-B777-440D-B6DD-FFFC8065788C}" name="Таблица1" displayName="Таблица1" ref="G14:K16" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99B2BAAD-B777-440D-B6DD-FFFC8065788C}" name="Таблица1" displayName="Таблица1" ref="G14:K16" totalsRowShown="0" headerRowDxfId="238" dataDxfId="236" headerRowBorderDxfId="237" tableBorderDxfId="235">
   <autoFilter ref="G14:K16" xr:uid="{99B2BAAD-B777-440D-B6DD-FFFC8065788C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{546010D4-DEE0-402D-9E41-AA157B8B771B}" name="Column Name" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{29910C15-FEE1-4B15-BF79-0ECCC9EF24CB}" name="Type" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{52CB5A46-E370-400C-B021-C250BF704541}" name="Key" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{AC2A3AB2-D080-4D37-BE76-4C7649B233C7}" name="NULL status " dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{678D5148-F712-441B-9044-D6F9A095F99F}" name="Remarks" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{546010D4-DEE0-402D-9E41-AA157B8B771B}" name="Column Name" dataDxfId="234"/>
+    <tableColumn id="2" xr3:uid="{29910C15-FEE1-4B15-BF79-0ECCC9EF24CB}" name="Type" dataDxfId="233"/>
+    <tableColumn id="3" xr3:uid="{52CB5A46-E370-400C-B021-C250BF704541}" name="Key" dataDxfId="232"/>
+    <tableColumn id="4" xr3:uid="{AC2A3AB2-D080-4D37-BE76-4C7649B233C7}" name="NULL status " dataDxfId="231"/>
+    <tableColumn id="5" xr3:uid="{678D5148-F712-441B-9044-D6F9A095F99F}" name="Remarks" dataDxfId="230"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{836A2ECF-BB2D-4E37-B3DA-8882A21C3145}" name="Таблица13" displayName="Таблица13" ref="G2:K4" totalsRowShown="0" headerRowDxfId="90" dataDxfId="88" headerRowBorderDxfId="89" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{836A2ECF-BB2D-4E37-B3DA-8882A21C3145}" name="Таблица13" displayName="Таблица13" ref="G2:K4" totalsRowShown="0" headerRowDxfId="229" dataDxfId="227" headerRowBorderDxfId="228" tableBorderDxfId="226">
   <autoFilter ref="G2:K4" xr:uid="{836A2ECF-BB2D-4E37-B3DA-8882A21C3145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4A06B787-8351-49FE-9D95-9B2F31CB9AF2}" name="Column Name" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{56239771-00F0-43B0-99EC-11DEB708ACB9}" name="Type" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{B88C2AC6-7F76-42AD-8954-18E1EBB9F104}" name="Key" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{F1C1062B-4591-4D1C-AA15-34CBAA04EF52}" name="NULL status " dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{379EDF05-36E1-4F34-805E-057C3C1B2E6E}" name="Remarks" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{4A06B787-8351-49FE-9D95-9B2F31CB9AF2}" name="Column Name" dataDxfId="225"/>
+    <tableColumn id="2" xr3:uid="{56239771-00F0-43B0-99EC-11DEB708ACB9}" name="Type" dataDxfId="224"/>
+    <tableColumn id="3" xr3:uid="{B88C2AC6-7F76-42AD-8954-18E1EBB9F104}" name="Key" dataDxfId="223"/>
+    <tableColumn id="4" xr3:uid="{F1C1062B-4591-4D1C-AA15-34CBAA04EF52}" name="NULL status " dataDxfId="222"/>
+    <tableColumn id="5" xr3:uid="{379EDF05-36E1-4F34-805E-057C3C1B2E6E}" name="Remarks" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{07E51873-0F83-4751-A9BD-C90DE382985E}" name="Таблица7" displayName="Таблица7" ref="N14:R18" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{07E51873-0F83-4751-A9BD-C90DE382985E}" name="Таблица7" displayName="Таблица7" ref="N14:R18" totalsRowShown="0" headerRowDxfId="220" dataDxfId="218" headerRowBorderDxfId="219" tableBorderDxfId="217">
   <autoFilter ref="N14:R18" xr:uid="{07E51873-0F83-4751-A9BD-C90DE382985E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9FD81774-C5CD-422E-BBF5-8ABB4966E50D}" name="Column Name" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{041EBC46-BB93-44E8-AAE2-7AC0337B5A46}" name="Type" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{6142AEDD-E86E-4916-9CD6-AC749FBB4930}" name="Key" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{F017E418-DDDF-4A80-9CBC-20924363FD96}" name="NULL status " dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{6F81F8EA-CD37-40E8-82F4-67AF0C197166}" name="Remarks" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{9FD81774-C5CD-422E-BBF5-8ABB4966E50D}" name="Column Name" dataDxfId="216"/>
+    <tableColumn id="2" xr3:uid="{041EBC46-BB93-44E8-AAE2-7AC0337B5A46}" name="Type" dataDxfId="215"/>
+    <tableColumn id="3" xr3:uid="{6142AEDD-E86E-4916-9CD6-AC749FBB4930}" name="Key" dataDxfId="214"/>
+    <tableColumn id="4" xr3:uid="{F017E418-DDDF-4A80-9CBC-20924363FD96}" name="NULL status " dataDxfId="213"/>
+    <tableColumn id="5" xr3:uid="{6F81F8EA-CD37-40E8-82F4-67AF0C197166}" name="Remarks" dataDxfId="212"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA4CF959-C797-498A-908D-9F1625BEE4AF}" name="Таблица8" displayName="Таблица8" ref="G23:K25" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA4CF959-C797-498A-908D-9F1625BEE4AF}" name="Таблица8" displayName="Таблица8" ref="G23:K25" totalsRowShown="0" headerRowDxfId="211" dataDxfId="209" headerRowBorderDxfId="210" tableBorderDxfId="208">
   <autoFilter ref="G23:K25" xr:uid="{DA4CF959-C797-498A-908D-9F1625BEE4AF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D82F917D-D511-4F01-A3D9-3FACB2CC26A0}" name="Column Name" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{DB1416B6-5234-4835-BAE7-4AC25EE104D3}" name="Type" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{749E2FB2-B78C-48F0-87B2-9BC2D798CB47}" name="Key" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{F7592464-DE78-496F-9BDF-E1FC2D53EE6B}" name="NULL status " dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{1DB0DA32-17E1-4285-8AF5-FD4532A47ED7}" name="Remarks" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{D82F917D-D511-4F01-A3D9-3FACB2CC26A0}" name="Column Name" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{DB1416B6-5234-4835-BAE7-4AC25EE104D3}" name="Type" dataDxfId="206"/>
+    <tableColumn id="3" xr3:uid="{749E2FB2-B78C-48F0-87B2-9BC2D798CB47}" name="Key" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{F7592464-DE78-496F-9BDF-E1FC2D53EE6B}" name="NULL status " dataDxfId="204"/>
+    <tableColumn id="5" xr3:uid="{1DB0DA32-17E1-4285-8AF5-FD4532A47ED7}" name="Remarks" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BBAA9E36-D6ED-499C-9817-B53F527D4F6C}" name="Таблица9" displayName="Таблица9" ref="N23:R29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BBAA9E36-D6ED-499C-9817-B53F527D4F6C}" name="Таблица9" displayName="Таблица9" ref="N23:R29" totalsRowShown="0" headerRowDxfId="202" dataDxfId="200" headerRowBorderDxfId="201" tableBorderDxfId="199">
   <autoFilter ref="N23:R29" xr:uid="{BBAA9E36-D6ED-499C-9817-B53F527D4F6C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{938EBDA3-27A8-445D-933D-57F8E5A2BC58}" name="Column Name" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{F5E68ECD-02E3-4E2E-BFC9-029A161DD895}" name="Type" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{51125E3C-49DC-4A6D-8173-298354BA6D19}" name="Key" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{D965857D-7DBA-4B72-AA40-224EA05E9028}" name="NULL status " dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{6B3521BB-6CA6-4275-B112-F0EC44650512}" name="Remarks" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{938EBDA3-27A8-445D-933D-57F8E5A2BC58}" name="Column Name" dataDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{F5E68ECD-02E3-4E2E-BFC9-029A161DD895}" name="Type" dataDxfId="197"/>
+    <tableColumn id="3" xr3:uid="{51125E3C-49DC-4A6D-8173-298354BA6D19}" name="Key" dataDxfId="196"/>
+    <tableColumn id="4" xr3:uid="{D965857D-7DBA-4B72-AA40-224EA05E9028}" name="NULL status " dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{6B3521BB-6CA6-4275-B112-F0EC44650512}" name="Remarks" dataDxfId="194"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{45296934-4824-481E-8750-A0DF83389DBA}" name="Таблица10" displayName="Таблица10" ref="A23:E29" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{45296934-4824-481E-8750-A0DF83389DBA}" name="Таблица10" displayName="Таблица10" ref="A23:E29" totalsRowShown="0" headerRowDxfId="193" dataDxfId="191" headerRowBorderDxfId="192" tableBorderDxfId="190">
   <autoFilter ref="A23:E29" xr:uid="{45296934-4824-481E-8750-A0DF83389DBA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1581BBEC-043A-49D3-882E-E8EC729C3F37}" name="Column Name" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{D64581CB-D24F-49E3-A22B-22881111C868}" name="Type" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{C756515C-5E67-47FB-81EA-F9D2366869A9}" name="Key" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{08C1CBDC-1B9B-4170-9CAB-75AC24477D33}" name="NULL status " dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{BFC2E35A-31B0-4A0F-9E03-9593F6B2F8CA}" name="Remarks" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{1581BBEC-043A-49D3-882E-E8EC729C3F37}" name="Column Name" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{D64581CB-D24F-49E3-A22B-22881111C868}" name="Type" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{C756515C-5E67-47FB-81EA-F9D2366869A9}" name="Key" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{08C1CBDC-1B9B-4170-9CAB-75AC24477D33}" name="NULL status " dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{BFC2E35A-31B0-4A0F-9E03-9593F6B2F8CA}" name="Remarks" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3327,56 +6590,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="10" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="10"/>
-    <col min="14" max="14" width="15.6640625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="30.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="10" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="10"/>
+    <col min="14" max="14" width="15.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="37"/>
       <c r="G1" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
       <c r="N1" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3446,16 +6709,16 @@
         <v>14</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>14</v>
@@ -3470,228 +6733,228 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="G13" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="31"/>
       <c r="N13" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +6971,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>0</v>
@@ -3741,7 +7004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
@@ -3749,13 +7012,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>5</v>
@@ -3764,16 +7027,16 @@
         <v>14</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>14</v>
@@ -3785,145 +7048,145 @@
         <v>16</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H16" s="20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="23"/>
       <c r="N16" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="L19" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="20"/>
@@ -3931,50 +7194,50 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="G22" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
       <c r="N22" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -4021,9 +7284,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>14</v>
@@ -4035,25 +7298,25 @@
         <v>16</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>14</v>
@@ -4065,24 +7328,24 @@
         <v>16</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>5</v>
@@ -4091,162 +7354,162 @@
         <v>14</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R25" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R26" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="12"/>
       <c r="N28" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E32" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4279,394 +7542,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862677DE-292B-40BB-B576-5DF72EB5AC99}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="43" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="38.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="40"/>
       <c r="E1" s="38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
       <c r="E7" s="38" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
       <c r="E13" s="38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
       <c r="E19" s="38" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="B22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>135</v>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="E26" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="A1:C1"/>
@@ -4678,7 +8035,1166 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="10">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C1CDE-30ED-4CFF-9BF7-9700AC224619}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD560B-AC7D-4561-A6AE-CD7072ADD8D3}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="17" style="42" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="42" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="42" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="42"/>
+    <col min="14" max="14" width="15.7109375" style="42" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="42" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="42" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="42" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="G1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="N1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="G13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="N13" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+    </row>
+    <row r="14" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="G22" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="N22" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+    </row>
+    <row r="23" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="225" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="R25" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="P27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E32" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="N13:R13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="9">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -4691,180 +9207,511 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57C1CDE-30ED-4CFF-9BF7-9700AC224619}">
-  <dimension ref="A1:E9"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1251CF-E38F-40B8-B15E-211F49104BDF}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14" style="47" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="14" style="47" customWidth="1"/>
+    <col min="6" max="6" width="43" style="47" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="47" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="E7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="E13" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="150" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="E26" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="E28" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="27" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="C29" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>115</v>
+      <c r="E29" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/lab3/Описание моделей.xlsx
+++ b/lab3/Описание моделей.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\bmstu_labs\data-base-labs\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B51489-95A2-4470-BF10-CE5E7E270459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C241DD8F-B8ED-4904-87CC-9C01C6718F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание структуры таблиц" sheetId="1" r:id="rId1"/>
@@ -1046,6 +1046,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,29 +1100,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,7 +1681,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1703,7 +1703,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1725,7 +1725,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1747,7 +1747,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2100,60 +2100,6 @@
         </patternFill>
       </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2275,1247 +2221,33 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3526,6 +2258,1343 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3699,125 +3768,147 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3978,97 +4069,6 @@
         <scheme val="major"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="major"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5930,24 +5930,24 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7FB635A-F2E8-4A27-90BD-5459DDB8DDFF}" name="Таблица1216171819207" displayName="Таблица1216171819207" ref="A27:C30" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7FB635A-F2E8-4A27-90BD-5459DDB8DDFF}" name="Таблица1216171819207" displayName="Таблица1216171819207" ref="A27:C30" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A27:C30" xr:uid="{D7FB635A-F2E8-4A27-90BD-5459DDB8DDFF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{87CDE50A-64C4-450D-A0DB-0824036F30D6}" name="Операция " dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{1A486143-D44F-4AE0-A705-9524CB478A7B}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{E126A85C-6C0E-4DEE-B5D1-E88EB7DB2255}" name="Действие над дочерней таблицей &quot;Классическое мероприятие&quot;" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{87CDE50A-64C4-450D-A0DB-0824036F30D6}" name="Операция " dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{1A486143-D44F-4AE0-A705-9524CB478A7B}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{E126A85C-6C0E-4DEE-B5D1-E88EB7DB2255}" name="Действие над дочерней таблицей &quot;Классическое мероприятие&quot;" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AD1D8A9D-D6C0-4E1E-9FA7-26FF6DCEAAE0}" name="Таблица1216171819202115" displayName="Таблица1216171819202115" ref="E27:G30" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AD1D8A9D-D6C0-4E1E-9FA7-26FF6DCEAAE0}" name="Таблица1216171819202115" displayName="Таблица1216171819202115" ref="E27:G30" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="E27:G30" xr:uid="{AD1D8A9D-D6C0-4E1E-9FA7-26FF6DCEAAE0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9E68A6FB-9CE1-45CC-88B6-5E1E477380C0}" name="Операция " dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{26478B61-3282-42CA-BC93-92C9FE047BF1}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{0BEB35A3-391D-475A-9AAD-68C6215EB106}" name="Действие над дочерней таблицей &quot;Хардатон&quot;" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{9E68A6FB-9CE1-45CC-88B6-5E1E477380C0}" name="Операция " dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{26478B61-3282-42CA-BC93-92C9FE047BF1}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{0BEB35A3-391D-475A-9AAD-68C6215EB106}" name="Действие над дочерней таблицей &quot;Хардатон&quot;" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5968,119 +5968,119 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E11" totalsRowShown="0" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}" name="Таблица11" displayName="Таблица11" ref="A1:E11" totalsRowShown="0" dataDxfId="134">
   <autoFilter ref="A1:E11" xr:uid="{C6504BB5-E114-44AE-90B3-6FD1F22353C0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="141"/>
-    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{1AB3F472-F101-4165-AE9F-BCF6DDAF7847}" name="Родительская таблица" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{0B1EF4C9-F326-4022-834D-4FAFFFC1C93A}" name="Дочерняя таблица" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{0484B746-4CDA-4B2E-BFA4-8B4308109CC2}" name="Название " dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{00A6F6C0-8E75-4C39-BE5C-118A2E667956}" name="Тип связи " dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{639BCF4F-57EF-42C9-98C8-D78C4F20E71C}" name="Связь" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{FB241949-2B51-4398-B031-38367A76454B}" name="Таблица322" displayName="Таблица322" ref="A2:E11" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{FB241949-2B51-4398-B031-38367A76454B}" name="Таблица322" displayName="Таблица322" ref="A2:E11" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
   <autoFilter ref="A2:E11" xr:uid="{FB241949-2B51-4398-B031-38367A76454B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2BE3679E-D47C-468B-8917-1BB70236C997}" name="Column Name" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{C54F87EF-5712-499C-A132-2DF0EBF04CB2}" name="Type" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{6ECBD9FD-69E4-496C-B5E3-96EFA24A74BD}" name="Key" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{FD55EF89-7708-4358-8832-52B00881CB83}" name="NULL status " dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{D6E33276-259A-437E-B3C6-E6FB8EF753E1}" name="Remarks" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{2BE3679E-D47C-468B-8917-1BB70236C997}" name="Column Name" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{C54F87EF-5712-499C-A132-2DF0EBF04CB2}" name="Type" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{6ECBD9FD-69E4-496C-B5E3-96EFA24A74BD}" name="Key" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{FD55EF89-7708-4358-8832-52B00881CB83}" name="NULL status " dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{D6E33276-259A-437E-B3C6-E6FB8EF753E1}" name="Remarks" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AF0916A6-F2C9-4A2E-BA67-9FB8748B3C4D}" name="Таблица423" displayName="Таблица423" ref="N2:R6" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" headerRowBorderDxfId="127" tableBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AF0916A6-F2C9-4A2E-BA67-9FB8748B3C4D}" name="Таблица423" displayName="Таблица423" ref="N2:R6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="119" headerRowBorderDxfId="120" tableBorderDxfId="118">
   <autoFilter ref="N2:R6" xr:uid="{AF0916A6-F2C9-4A2E-BA67-9FB8748B3C4D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{285A25E1-7B84-4387-BAD0-A1445A9AB333}" name="Column Name" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{86102C63-DFB1-4837-88A2-60DE5135BAF7}" name="Type" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{7044064E-23E5-45DA-88FE-FB321EB5D91A}" name="Key" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{45CF3CBC-2EC5-48FD-A5FB-0B1D2C390C72}" name="NULL status " dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{F65DBF95-A28A-4475-9C7F-97618E80F784}" name="Remarks" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{285A25E1-7B84-4387-BAD0-A1445A9AB333}" name="Column Name" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{86102C63-DFB1-4837-88A2-60DE5135BAF7}" name="Type" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{7044064E-23E5-45DA-88FE-FB321EB5D91A}" name="Key" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{45CF3CBC-2EC5-48FD-A5FB-0B1D2C390C72}" name="NULL status " dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{F65DBF95-A28A-4475-9C7F-97618E80F784}" name="Remarks" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{74F4D43B-9551-4D03-81B4-B16534325D12}" name="Таблица524" displayName="Таблица524" ref="A14:E20" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" headerRowBorderDxfId="125" tableBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{74F4D43B-9551-4D03-81B4-B16534325D12}" name="Таблица524" displayName="Таблица524" ref="A14:E20" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109">
   <autoFilter ref="A14:E20" xr:uid="{74F4D43B-9551-4D03-81B4-B16534325D12}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{88B6A5B1-F2A3-47EB-B00E-7BBA895B5AB8}" name="Column Name" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{CF80F04F-D7E8-4DAC-A04E-6288C6E990F8}" name="Type" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{2C00B2A7-B652-4D4B-B853-E4D37E10BA85}" name="Key" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{1C756B77-BA8A-4753-B975-E2807A111E4D}" name="NULL status " dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{3021B769-09BF-4DE8-B8A6-4DE4A5BE4BF6}" name="Remarks" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{88B6A5B1-F2A3-47EB-B00E-7BBA895B5AB8}" name="Column Name" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{CF80F04F-D7E8-4DAC-A04E-6288C6E990F8}" name="Type" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{2C00B2A7-B652-4D4B-B853-E4D37E10BA85}" name="Key" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{1C756B77-BA8A-4753-B975-E2807A111E4D}" name="NULL status " dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{3021B769-09BF-4DE8-B8A6-4DE4A5BE4BF6}" name="Remarks" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E4505E00-9CC9-4447-9298-CE5323F885C8}" name="Таблица125" displayName="Таблица125" ref="G14:K16" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowBorderDxfId="123" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E4505E00-9CC9-4447-9298-CE5323F885C8}" name="Таблица125" displayName="Таблица125" ref="G14:K16" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100">
   <autoFilter ref="G14:K16" xr:uid="{E4505E00-9CC9-4447-9298-CE5323F885C8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{449FD2FC-3D6E-4A14-80DE-32F04CCE8038}" name="Column Name" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{E4B00FE2-6FB3-4F71-B257-37E2F1295691}" name="Type" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{06C1E6E2-A03E-4C16-86E0-3BFA3AFA29F6}" name="Key" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{0346E72C-E6D3-43E2-A3B8-F10B76A7DFF1}" name="NULL status " dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{7D09ACF9-0AA7-48FC-B088-34EBE724C224}" name="Remarks" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{449FD2FC-3D6E-4A14-80DE-32F04CCE8038}" name="Column Name" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{E4B00FE2-6FB3-4F71-B257-37E2F1295691}" name="Type" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{06C1E6E2-A03E-4C16-86E0-3BFA3AFA29F6}" name="Key" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{0346E72C-E6D3-43E2-A3B8-F10B76A7DFF1}" name="NULL status " dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{7D09ACF9-0AA7-48FC-B088-34EBE724C224}" name="Remarks" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{471B95D7-08EB-4430-ADB1-77AFB7C63414}" name="Таблица1326" displayName="Таблица1326" ref="G2:K4" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowBorderDxfId="121" tableBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{471B95D7-08EB-4430-ADB1-77AFB7C63414}" name="Таблица1326" displayName="Таблица1326" ref="G2:K4" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91">
   <autoFilter ref="G2:K4" xr:uid="{471B95D7-08EB-4430-ADB1-77AFB7C63414}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7E0C4D16-DBEB-4DF4-89B8-0E112A1D1108}" name="Column Name" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{8375CE9F-3A2E-4822-94FC-70048631A9C1}" name="Type" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{3D8B88B2-9A44-41FC-8465-9C02D8A36EF0}" name="Key" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{DDB57B97-8553-47A3-9201-205859346D0A}" name="NULL status " dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{2988429C-D69D-47FB-8584-A64E58B53E83}" name="Remarks" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{7E0C4D16-DBEB-4DF4-89B8-0E112A1D1108}" name="Column Name" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{8375CE9F-3A2E-4822-94FC-70048631A9C1}" name="Type" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{3D8B88B2-9A44-41FC-8465-9C02D8A36EF0}" name="Key" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{DDB57B97-8553-47A3-9201-205859346D0A}" name="NULL status " dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{2988429C-D69D-47FB-8584-A64E58B53E83}" name="Remarks" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{706718DC-0538-4117-83A8-AF653DCA73E0}" name="Таблица727" displayName="Таблица727" ref="N14:R18" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" headerRowBorderDxfId="119" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{706718DC-0538-4117-83A8-AF653DCA73E0}" name="Таблица727" displayName="Таблица727" ref="N14:R18" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
   <autoFilter ref="N14:R18" xr:uid="{706718DC-0538-4117-83A8-AF653DCA73E0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3DDA7C7B-9E86-49DA-91A0-B4A620B5A65A}" name="Column Name" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{7648920C-1E18-40C5-84F0-17FC10A47968}" name="Type" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{4C317568-89FE-4A3F-92A0-1CFC6A8321B5}" name="Key" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{FB1A4D08-0464-4264-8081-47685A7A88A1}" name="NULL status " dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{23F3CF53-BFA6-47E2-BDE0-22C87472E712}" name="Remarks" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{3DDA7C7B-9E86-49DA-91A0-B4A620B5A65A}" name="Column Name" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{7648920C-1E18-40C5-84F0-17FC10A47968}" name="Type" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{4C317568-89FE-4A3F-92A0-1CFC6A8321B5}" name="Key" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{FB1A4D08-0464-4264-8081-47685A7A88A1}" name="NULL status " dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{23F3CF53-BFA6-47E2-BDE0-22C87472E712}" name="Remarks" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{D5845F2D-FF89-41D8-98AC-1BF7714E0E4F}" name="Таблица828" displayName="Таблица828" ref="G23:K25" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowBorderDxfId="117" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{D5845F2D-FF89-41D8-98AC-1BF7714E0E4F}" name="Таблица828" displayName="Таблица828" ref="G23:K25" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73">
   <autoFilter ref="G23:K25" xr:uid="{D5845F2D-FF89-41D8-98AC-1BF7714E0E4F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{13DE4F10-79A2-4252-A06F-32AFC7BE30B1}" name="Column Name" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{D14C38BF-70D1-420B-8377-63DBF21927A5}" name="Type" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{29A71359-3B43-4F77-8EBB-C0FBE78BE294}" name="Key" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{55F893D2-6C93-4494-A041-C2A8D4ECF1E7}" name="NULL status " dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{2876C115-9A20-4C69-AAC3-21350516C1C9}" name="Remarks" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{13DE4F10-79A2-4252-A06F-32AFC7BE30B1}" name="Column Name" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{D14C38BF-70D1-420B-8377-63DBF21927A5}" name="Type" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{29A71359-3B43-4F77-8EBB-C0FBE78BE294}" name="Key" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{55F893D2-6C93-4494-A041-C2A8D4ECF1E7}" name="NULL status " dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{2876C115-9A20-4C69-AAC3-21350516C1C9}" name="Remarks" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{8D21F323-9FA6-4084-80CA-46C3423D1A77}" name="Таблица929" displayName="Таблица929" ref="N23:R29" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" headerRowBorderDxfId="115" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{8D21F323-9FA6-4084-80CA-46C3423D1A77}" name="Таблица929" displayName="Таблица929" ref="N23:R29" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64">
   <autoFilter ref="N23:R29" xr:uid="{8D21F323-9FA6-4084-80CA-46C3423D1A77}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{45037AD1-133A-4435-A2ED-F51C96999C90}" name="Column Name" dataDxfId="63"/>
@@ -6094,14 +6094,14 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{8F4274A5-C14F-4B64-8F46-4050376EBFB7}" name="Таблица1030" displayName="Таблица1030" ref="A23:E29" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="113" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{8F4274A5-C14F-4B64-8F46-4050376EBFB7}" name="Таблица1030" displayName="Таблица1030" ref="A23:E29" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="A23:E29" xr:uid="{8F4274A5-C14F-4B64-8F46-4050376EBFB7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D0191FA5-D1A9-408F-9B63-2F5F46B2AA5D}" name="Column Name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{6D666CFD-9995-4C93-9FFB-FA1FBEFF1F32}" name="Type" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{A7DA8956-F54F-4645-92AC-EC7CECCD6CF3}" name="Key" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{FB89E214-DB49-411E-A0C6-14607D22C4EC}" name="NULL status " dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{419A0F1D-D859-489A-A04B-B464B16D7BB6}" name="Remarks" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{D0191FA5-D1A9-408F-9B63-2F5F46B2AA5D}" name="Column Name" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{6D666CFD-9995-4C93-9FFB-FA1FBEFF1F32}" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{A7DA8956-F54F-4645-92AC-EC7CECCD6CF3}" name="Key" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{FB89E214-DB49-411E-A0C6-14607D22C4EC}" name="NULL status " dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{419A0F1D-D859-489A-A04B-B464B16D7BB6}" name="Remarks" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6122,120 +6122,120 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{77A3543C-E53F-48CA-B3E8-5DCB91ACBF86}" name="Таблица1231" displayName="Таблица1231" ref="A2:C5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{77A3543C-E53F-48CA-B3E8-5DCB91ACBF86}" name="Таблица1231" displayName="Таблица1231" ref="A2:C5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A2:C5" xr:uid="{77A3543C-E53F-48CA-B3E8-5DCB91ACBF86}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1123473F-49AD-4EAF-99FA-CD866133510D}" name="Операция " dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{B5B4403B-5CF0-4258-B07A-DDA7F2E76B01}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{E2125D7B-4B25-4465-B9B1-775C71715998}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{1123473F-49AD-4EAF-99FA-CD866133510D}" name="Операция " dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{B5B4403B-5CF0-4258-B07A-DDA7F2E76B01}" name="Действие над родительской таблицей (Мероприятие )" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{E2125D7B-4B25-4465-B9B1-775C71715998}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{E4BD25C5-534F-4E47-8E53-F733BD0D1778}" name="Таблица121432" displayName="Таблица121432" ref="E2:G5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{E4BD25C5-534F-4E47-8E53-F733BD0D1778}" name="Таблица121432" displayName="Таблица121432" ref="E2:G5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="E2:G5" xr:uid="{E4BD25C5-534F-4E47-8E53-F733BD0D1778}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEC3F1B4-1BC0-40D5-9C7F-A91C921DEF55}" name="Операция " dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E53EC474-F680-49D3-A370-A6199FCA9320}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{ADAD645F-B4D3-4959-8224-B592687D2D47}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{BEC3F1B4-1BC0-40D5-9C7F-A91C921DEF55}" name="Операция " dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{E53EC474-F680-49D3-A370-A6199FCA9320}" name="Действие над родительской таблицей (Партнёр)" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{ADAD645F-B4D3-4959-8224-B592687D2D47}" name="Действие над дочерней таблицей (Партнёр_мероприятия)" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{053C0BCA-2AA3-4C7D-8913-1E0BAE139C0C}" name="Таблица121633" displayName="Таблица121633" ref="A8:C11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{053C0BCA-2AA3-4C7D-8913-1E0BAE139C0C}" name="Таблица121633" displayName="Таблица121633" ref="A8:C11" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A8:C11" xr:uid="{053C0BCA-2AA3-4C7D-8913-1E0BAE139C0C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{63795A1D-A3E0-49E5-8042-6986A18A70C7}" name="Операция " dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{C70B8B6C-8779-4273-B748-F2F734477914}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{3AAB267A-D8F2-4AF9-A4F9-268B371A0E28}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{63795A1D-A3E0-49E5-8042-6986A18A70C7}" name="Операция " dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C70B8B6C-8779-4273-B748-F2F734477914}" name="Действие над родительской таблицей &quot;Хардтон&quot; " dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{3AAB267A-D8F2-4AF9-A4F9-268B371A0E28}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27B93E2C-732E-45CB-88CF-74C848D07362}" name="Таблица12161734" displayName="Таблица12161734" ref="E8:G11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27B93E2C-732E-45CB-88CF-74C848D07362}" name="Таблица12161734" displayName="Таблица12161734" ref="E8:G11" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="E8:G11" xr:uid="{27B93E2C-732E-45CB-88CF-74C848D07362}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D64AD008-9225-4100-B2C6-F8C2E5A8CC2D}" name="Операция " dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{AEA0550C-D4EB-4C72-81FB-ED0DF78A5C6F}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{57942D60-DD9B-4119-B51D-58ED279E6FB4}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{D64AD008-9225-4100-B2C6-F8C2E5A8CC2D}" name="Операция " dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{AEA0550C-D4EB-4C72-81FB-ED0DF78A5C6F}" name="Действие над родительской таблицей &quot;Классическое мероприятие&quot;" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{57942D60-DD9B-4119-B51D-58ED279E6FB4}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{43A40CCA-56D3-4433-BF4B-98948B8DC89F}" name="Таблица1216171835" displayName="Таблица1216171835" ref="E14:G17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{43A40CCA-56D3-4433-BF4B-98948B8DC89F}" name="Таблица1216171835" displayName="Таблица1216171835" ref="E14:G17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="E14:G17" xr:uid="{43A40CCA-56D3-4433-BF4B-98948B8DC89F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C1A24EED-E6D8-47CD-A6BE-881007B48921}" name="Операция " dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{460F587C-0691-4E9A-B12D-929DD0DDCC97}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9ADE3FF1-7DF2-4494-B22A-55D16CF1CBDD}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{C1A24EED-E6D8-47CD-A6BE-881007B48921}" name="Операция " dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{460F587C-0691-4E9A-B12D-929DD0DDCC97}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{9ADE3FF1-7DF2-4494-B22A-55D16CF1CBDD}" name="Действие над дочерней таблицей &quot;Команда_Мероприятия&quot;" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{9317021A-E995-4D03-B80C-F96450491F93}" name="Таблица121617181936" displayName="Таблица121617181936" ref="A14:C17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{9317021A-E995-4D03-B80C-F96450491F93}" name="Таблица121617181936" displayName="Таблица121617181936" ref="A14:C17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A14:C17" xr:uid="{9317021A-E995-4D03-B80C-F96450491F93}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0770EF3D-2B03-47B8-BC4C-9D12A19306FB}" name="Операция " dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{4149FA3F-C2EF-4131-9D9D-7F9B35E32731}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{3FE65896-31D3-4270-B77D-2906441CF3E9}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{0770EF3D-2B03-47B8-BC4C-9D12A19306FB}" name="Операция " dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{4149FA3F-C2EF-4131-9D9D-7F9B35E32731}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{3FE65896-31D3-4270-B77D-2906441CF3E9}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{96BD0666-AE45-4B9F-82A7-237CBFCE21BE}" name="Таблица12161718192037" displayName="Таблица12161718192037" ref="A20:C23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{96BD0666-AE45-4B9F-82A7-237CBFCE21BE}" name="Таблица12161718192037" displayName="Таблица12161718192037" ref="A20:C23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A20:C23" xr:uid="{96BD0666-AE45-4B9F-82A7-237CBFCE21BE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FE67C039-3899-460F-8083-A5589C3001D9}" name="Операция " dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{FDF4E95A-51D4-483A-BAB8-1697A82B04D5}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D90080D1-98FB-4948-A220-46ABE1B007EB}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{FE67C039-3899-460F-8083-A5589C3001D9}" name="Операция " dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{FDF4E95A-51D4-483A-BAB8-1697A82B04D5}" name="Действие над родительской  таблицей &quot;Команда&quot;" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D90080D1-98FB-4948-A220-46ABE1B007EB}" name="Действие над дочерней таблицей &quot;Участник&quot;" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{2EEEA358-A188-4E79-B2A6-0AD7AF14C183}" name="Таблица1216171819202138" displayName="Таблица1216171819202138" ref="E20:G23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{2EEEA358-A188-4E79-B2A6-0AD7AF14C183}" name="Таблица1216171819202138" displayName="Таблица1216171819202138" ref="E20:G23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="E20:G23" xr:uid="{2EEEA358-A188-4E79-B2A6-0AD7AF14C183}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{60E60F50-F6D2-4FA5-AFA1-BF95885201AD}" name="Операция " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1C26076F-AA62-4DE9-BAB6-C2FDC5626E6E}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AE2B1016-1BD6-429B-9B16-36F8A54FC975}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{60E60F50-F6D2-4FA5-AFA1-BF95885201AD}" name="Операция " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1C26076F-AA62-4DE9-BAB6-C2FDC5626E6E}" name="Действие над родительской таблицей &quot;Команда&quot;" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AE2B1016-1BD6-429B-9B16-36F8A54FC975}" name="Действие над дочерней таблицей &quot;Проект&quot;" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{52D7EC25-F8C0-4CF5-8A46-13D5AAA220F6}" name="Таблица121617181920739" displayName="Таблица121617181920739" ref="A27:C30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{52D7EC25-F8C0-4CF5-8A46-13D5AAA220F6}" name="Таблица121617181920739" displayName="Таблица121617181920739" ref="A27:C30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A27:C30" xr:uid="{52D7EC25-F8C0-4CF5-8A46-13D5AAA220F6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5F5A7744-19CC-4C71-9CCF-C95306A140A4}" name="Операция " dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C106423E-013F-4E31-88BF-6631DBD8081C}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2A1DC86F-FC6A-469C-AD60-F01FF5878C6E}" name="Действие над дочерней таблицей &quot;Классическое мероприятие&quot;" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5F5A7744-19CC-4C71-9CCF-C95306A140A4}" name="Операция " dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C106423E-013F-4E31-88BF-6631DBD8081C}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2A1DC86F-FC6A-469C-AD60-F01FF5878C6E}" name="Действие над дочерней таблицей &quot;Классическое мероприятие&quot;" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{B13FF6FB-ABAB-4B6E-AEC2-874E25EB3823}" name="Таблица121617181920211540" displayName="Таблица121617181920211540" ref="E27:G30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{B13FF6FB-ABAB-4B6E-AEC2-874E25EB3823}" name="Таблица121617181920211540" displayName="Таблица121617181920211540" ref="E27:G30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E27:G30" xr:uid="{B13FF6FB-ABAB-4B6E-AEC2-874E25EB3823}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B6688BFC-D078-43D0-B295-AC78C0CE13E4}" name="Операция " dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EE14EB63-88EC-44AD-9898-AD68CAC78137}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{89F11BFC-D4F1-40C3-A6BC-5E21EFA53D47}" name="Действие над дочерней таблицей &quot;Хардатон&quot;" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B6688BFC-D078-43D0-B295-AC78C0CE13E4}" name="Операция " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EE14EB63-88EC-44AD-9898-AD68CAC78137}" name="Действие над родительской  таблицей &quot;Мероприятие&quot;" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{89F11BFC-D4F1-40C3-A6BC-5E21EFA53D47}" name="Действие над дочерней таблицей &quot;Хардатон&quot;" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6591,55 +6591,55 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="17" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="10" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="10"/>
-    <col min="14" max="14" width="15.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="10"/>
+    <col min="9" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="10" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="10"/>
+    <col min="14" max="14" width="15.6640625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="G1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="N1" s="29" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+      <c r="N1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -6931,30 +6931,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="29" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="N13" s="29" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="N13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>39</v>
       </c>
@@ -7214,30 +7214,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="29" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-      <c r="N22" s="32" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="N22" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>76</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>55</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>30</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E32" s="10" t="s">
         <v>40</v>
       </c>
@@ -7544,35 +7544,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862677DE-292B-40BB-B576-5DF72EB5AC99}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="43" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="38.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>83</v>
       </c>
@@ -7652,19 +7652,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="E7" s="38" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="E7" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>131</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>83</v>
       </c>
@@ -7744,19 +7744,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="E13" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>131</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>83</v>
       </c>
@@ -7836,19 +7836,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="E19" s="38" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="E19" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>131</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
@@ -7928,19 +7928,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="E26" s="38" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="E26" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>131</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>83</v>
       </c>
@@ -8055,19 +8055,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>88</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>33</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>49</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>91</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>91</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>91</v>
       </c>
@@ -8220,14 +8220,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -8237,14 +8237,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>148</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -8271,912 +8271,912 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="17" style="42" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="42" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="42"/>
-    <col min="14" max="14" width="15.7109375" style="42" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="42" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="42" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" style="42" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="30.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="17" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="30" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="30"/>
+    <col min="14" max="14" width="15.6640625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="30" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="30" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="30" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="N1" s="44" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="N1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-    </row>
-    <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:18" ht="54" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:18" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:18" ht="72" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:18" ht="72" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:18" ht="72" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:18" ht="36" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="G13" s="44" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="G13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="N13" s="44" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="N13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-    </row>
-    <row r="14" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+    </row>
+    <row r="14" spans="1:18" ht="35.4" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:18" ht="108" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="Q15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:18" ht="234" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="42" t="s">
+      <c r="Q16" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="30" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+    <row r="17" spans="1:18" ht="90" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="Q17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:18" ht="144" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="O18" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P18" s="42" t="s">
+      <c r="P18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="206.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:18" ht="198" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:18" ht="36" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="G22" s="44" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="N22" s="44" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="N22" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-    </row>
-    <row r="23" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+    </row>
+    <row r="23" spans="1:18" ht="35.4" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="45" t="s">
+      <c r="P23" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="45" t="s">
+      <c r="Q23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="45" t="s">
+      <c r="R23" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="75" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="42" t="s">
+      <c r="O24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="42" t="s">
+      <c r="P24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="42" t="s">
+      <c r="Q24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="225" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:18" ht="198" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="42" t="s">
+      <c r="P25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="42" t="s">
+      <c r="Q25" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:18" ht="90" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="42" t="s">
+      <c r="O26" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="42" t="s">
+      <c r="P26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="Q26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="42" t="s">
+      <c r="R26" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="P27" s="42" t="s">
+      <c r="P27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="42" t="s">
+      <c r="Q27" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:18" ht="90" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="P28" s="42" t="s">
+      <c r="P28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="42" t="s">
+      <c r="Q28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R28" s="42" t="s">
+      <c r="R28" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:18" ht="162" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="P29" s="42" t="s">
+      <c r="P29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="42" t="s">
+      <c r="Q29" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E32" s="42" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E32" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9211,479 +9211,479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1251CF-E38F-40B8-B15E-211F49104BDF}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:G30"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" style="47" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="14" style="47" customWidth="1"/>
-    <col min="6" max="6" width="43" style="47" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="47" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="14" style="33" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14" style="33" customWidth="1"/>
+    <col min="6" max="6" width="43" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="E1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-    </row>
-    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="E13" s="46" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="E13" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="150" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:7" ht="126" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="E19" s="46" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="E19" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:7" ht="126" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="E26" s="46" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="E26" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-    </row>
-    <row r="27" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="33" t="s">
         <v>154</v>
       </c>
     </row>
